--- a/ocms/src/test/resources/TestData/MenuDescriptionMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/MenuDescriptionMappingData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Menu ID</t>
   </si>
@@ -65,6 +69,15 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Card</t>
   </si>
 </sst>
 </file>
@@ -116,6 +129,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -163,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,7 +214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,7 +434,7 @@
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -438,6 +454,21 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -461,7 +492,7 @@
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -513,7 +544,7 @@
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -550,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/MenuDescriptionMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/MenuDescriptionMappingData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J12"/>
 </workbook>
 </file>
 
@@ -58,6 +54,18 @@
   </si>
   <si>
     <t>Deleted</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Card</t>
   </si>
   <si>
     <t>SELECT [IMD_MENU_ID] as 'Menu Id'
@@ -65,19 +73,7 @@
       ,[INTENT] as Intent
       ,Substring([LAST_CHANGED_ON],11,19) as 'Last Changed On'
       ,[LAST_CHANGED_BY] as 'Last Changed By'
-  FROM [Product_OCM].[dbo].[IVR_MENU_DESC]</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>Debit</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>Card</t>
+  FROM [IVR_MENU_DESC]</t>
   </si>
 </sst>
 </file>
@@ -425,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -458,17 +454,17 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -592,12 +588,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/MenuDescriptionMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/MenuDescriptionMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J12"/>
+  <oleSize ref="A1:N18"/>
 </workbook>
 </file>
 
@@ -421,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -577,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/MenuDescriptionMappingData.xlsx
+++ b/ocms/src/test/resources/TestData/MenuDescriptionMappingData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C2F920-421A-4A8F-8697-7A20F53B0834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="6060"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,11 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Menu ID</t>
   </si>
@@ -29,21 +34,12 @@
     <t>Intent</t>
   </si>
   <si>
-    <t>Account Balance</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>Updated MenuName</t>
   </si>
   <si>
-    <t>Account Balance Updated</t>
-  </si>
-  <si>
     <t>Modify Reason</t>
   </si>
   <si>
@@ -60,12 +56,6 @@
   </si>
   <si>
     <t>Debit</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>Card</t>
   </si>
   <si>
     <t>SELECT [IMD_MENU_ID] as 'Menu Id'
@@ -75,11 +65,34 @@
       ,[LAST_CHANGED_BY] as 'Last Changed By'
   FROM [IVR_MENU_DESC]</t>
   </si>
+  <si>
+    <t>press 1</t>
+  </si>
+  <si>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>Fixed Deposit</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Fixed Deposit Updated</t>
+  </si>
+  <si>
+    <t>SELECT [IMD_MENU_ID] as 'Menu Id'
+      ,[IMD_MENU_NAME] as 'Menu Name'
+      ,[INTENT] as Intent
+      ,case when [LAST_CHANGED_ON] is NULL then '' else [LAST_CHANGED_ON] end as 'Last Changed On'
+      ,case when [LAST_CHANGED_BY] is NULL then '' else [LAST_CHANGED_BY] end as 'Last Changed By'
+  FROM [IVR_MENU_DESC] Order By [IMD_MENU_NAME] Asc;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,6 +221,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -243,6 +273,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,19 +465,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,30 +488,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>15</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -473,22 +520,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,27 +546,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -528,19 +575,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,21 +598,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -574,26 +621,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.5703125" customWidth="1"/>
+    <col min="1" max="1" width="55.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
